--- a/Check/Time.xlsx
+++ b/Check/Time.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\U\DPLL\Check\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28EA835-21A3-45E6-81BC-4E882EADAC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00DC8679-AB8C-460B-9D67-47C70B96FD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2270" yWindow="0" windowWidth="12200" windowHeight="10140" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>4      unsatisfied</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1(最频繁中随机)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(平均)20234.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,6 +81,79 @@
   </si>
   <si>
     <t>同列最劣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(第一个变量)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2(最频繁)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3(最频繁正|负数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(权重法1 选最小)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1(最频繁中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>随机</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(平均)71531.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(权重法1 最大值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5(权重法2 最大值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7(权重法3 最大值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(权重法4 最大值)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -83,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,14 +203,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
@@ -175,10 +245,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -222,17 +368,17 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,51 +398,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -580,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -592,45 +755,51 @@
     <col min="2" max="2" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="27">
         <v>1</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="27">
         <v>2</v>
       </c>
-      <c r="D1" s="11">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="27">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11">
+      <c r="F1" s="27">
         <v>5</v>
       </c>
-      <c r="G1" s="11">
+      <c r="G1" s="27">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1" s="27">
+        <v>7</v>
+      </c>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>0</v>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>12</v>
       </c>
       <c r="B3" s="5">
         <v>23583</v>
@@ -638,43 +807,57 @@
       <c r="C3" s="4">
         <v>84666</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="11">
         <v>14</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="13">
         <v>849</v>
       </c>
       <c r="F3" s="4">
         <v>28</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
+      <c r="G3" s="4">
+        <v>24697</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="5">
         <v>7482</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="13">
         <v>1228</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="16">
         <v>27451</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="16">
         <v>107241</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="15">
         <v>59</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="20">
+      <c r="G4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="14">
         <v>43445</v>
       </c>
       <c r="C5" s="4">
@@ -686,22 +869,29 @@
       <c r="E5" s="4">
         <v>18229</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="11">
         <v>11</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="G5" s="13">
+        <v>12391</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10">
         <v>42</v>
       </c>
       <c r="C6" s="4">
         <v>2073</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="11">
         <v>22</v>
       </c>
       <c r="E6" s="4">
@@ -710,10 +900,18 @@
       <c r="F6" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>5</v>
+      <c r="G6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="B7" s="5">
         <v>4810</v>
@@ -721,52 +919,62 @@
       <c r="C7" s="4">
         <v>144591</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="13">
         <v>26</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="11">
         <v>466</v>
       </c>
       <c r="F7" s="4">
         <v>27</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="I7" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>6</v>
+      <c r="G7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="B8" s="5">
         <v>17992</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="19">
+      <c r="C8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="13">
         <v>30</v>
       </c>
       <c r="E8" s="4">
         <v>1887</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="13">
         <v>22</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="I8" s="25" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="18">
+      <c r="G8" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="12">
         <v>178</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="11">
         <v>211</v>
       </c>
       <c r="D9" s="4">
@@ -775,17 +983,23 @@
       <c r="E9" s="4">
         <v>15780</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="11">
         <v>6</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="I9" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>8</v>
+      <c r="G9" s="4">
+        <v>61464</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="B10" s="5">
         <v>12460</v>
@@ -802,233 +1016,313 @@
       <c r="F10" s="4">
         <v>30</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="I10" s="13" t="s">
+      <c r="G10" s="11">
+        <v>84</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="10" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="E11" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B12" s="20">
+        <v>25611</v>
+      </c>
+      <c r="C12" s="20">
+        <v>8062</v>
+      </c>
+      <c r="D12" s="20">
+        <v>11229</v>
+      </c>
+      <c r="E12" s="20">
+        <v>78561</v>
+      </c>
+      <c r="F12" s="20">
+        <v>62</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="B13" s="20">
+        <v>16755</v>
+      </c>
+      <c r="C13" s="20">
+        <v>16879</v>
+      </c>
+      <c r="D13" s="20">
+        <v>5290</v>
+      </c>
+      <c r="E13" s="20">
+        <v>79826</v>
+      </c>
+      <c r="F13" s="20">
+        <v>59</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="B14" s="20">
+        <v>27903</v>
+      </c>
+      <c r="C14" s="20">
+        <v>43780</v>
+      </c>
+      <c r="D14" s="20">
+        <v>20312</v>
+      </c>
+      <c r="E14" s="20">
+        <v>88471</v>
+      </c>
+      <c r="F14" s="20">
+        <v>58</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="32"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="B15" s="20">
+        <v>39036</v>
+      </c>
+      <c r="C15" s="20">
+        <v>2711</v>
+      </c>
+      <c r="D15" s="20">
+        <v>214</v>
+      </c>
+      <c r="E15" s="20">
+        <v>79248</v>
+      </c>
+      <c r="F15" s="20">
+        <v>5</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>1.5</v>
+      </c>
+      <c r="B16" s="20">
+        <v>22987</v>
+      </c>
+      <c r="C16" s="20">
+        <v>39839</v>
+      </c>
+      <c r="D16" s="20">
+        <v>17999</v>
+      </c>
+      <c r="E16" s="20">
+        <v>68219</v>
+      </c>
+      <c r="F16" s="20">
+        <v>57</v>
+      </c>
+      <c r="G16" s="20"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="B17" s="20">
+        <v>7414</v>
+      </c>
+      <c r="C17" s="20">
+        <v>19657</v>
+      </c>
+      <c r="D17" s="20">
+        <v>17913</v>
+      </c>
+      <c r="E17" s="20">
+        <v>68968</v>
+      </c>
+      <c r="F17" s="20">
         <v>4</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="G17" s="20"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>1.7</v>
+      </c>
+      <c r="B18" s="20">
+        <v>33943</v>
+      </c>
+      <c r="C18" s="20">
+        <v>11713</v>
+      </c>
+      <c r="D18" s="20">
+        <v>18219</v>
+      </c>
+      <c r="E18" s="20">
+        <v>71618</v>
+      </c>
+      <c r="F18" s="20">
+        <v>4</v>
+      </c>
+      <c r="G18" s="20"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <v>1.8</v>
+      </c>
+      <c r="B19" s="20">
+        <v>41081</v>
+      </c>
+      <c r="C19" s="20">
+        <v>70</v>
+      </c>
+      <c r="D19" s="20">
+        <v>17804</v>
+      </c>
+      <c r="E19" s="20">
+        <v>77712</v>
+      </c>
+      <c r="F19" s="20">
+        <v>60</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <v>1.9</v>
+      </c>
+      <c r="B20" s="20">
+        <v>10694</v>
+      </c>
+      <c r="C20" s="20">
+        <v>82994</v>
+      </c>
+      <c r="D20" s="20">
+        <v>17722</v>
+      </c>
+      <c r="E20" s="20">
+        <v>76323</v>
+      </c>
+      <c r="F20" s="20">
         <v>5</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="G20" s="20"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="32"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B12" s="6">
-        <v>25611</v>
-      </c>
-      <c r="C12" s="6">
-        <v>8062</v>
-      </c>
-      <c r="D12" s="6">
-        <v>11229</v>
-      </c>
-      <c r="E12" s="6">
-        <v>78561</v>
-      </c>
-      <c r="F12" s="6">
-        <v>62</v>
-      </c>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="B13" s="6">
-        <v>16755</v>
-      </c>
-      <c r="C13" s="6">
-        <v>16879</v>
-      </c>
-      <c r="D13" s="6">
-        <v>5290</v>
-      </c>
-      <c r="E13" s="6">
-        <v>79826</v>
-      </c>
-      <c r="F13" s="6">
-        <v>59</v>
-      </c>
-      <c r="G13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="B14" s="6">
-        <v>27903</v>
-      </c>
-      <c r="C14" s="6">
-        <v>43780</v>
-      </c>
-      <c r="D14" s="6">
-        <v>20312</v>
-      </c>
-      <c r="E14" s="6">
-        <v>88471</v>
-      </c>
-      <c r="F14" s="6">
-        <v>58</v>
-      </c>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
-        <v>1.4</v>
-      </c>
-      <c r="B15" s="6">
-        <v>39036</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2711</v>
-      </c>
-      <c r="D15" s="6">
-        <v>214</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6">
-        <v>5</v>
-      </c>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
-        <v>1.5</v>
-      </c>
-      <c r="B16" s="6">
-        <v>22987</v>
-      </c>
-      <c r="C16" s="6">
-        <v>39839</v>
-      </c>
-      <c r="D16" s="6">
-        <v>17999</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6">
-        <v>57</v>
-      </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>1.6</v>
-      </c>
-      <c r="B17" s="6">
-        <v>7414</v>
-      </c>
-      <c r="C17" s="6">
-        <v>19657</v>
-      </c>
-      <c r="D17" s="6">
-        <v>17913</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6">
-        <v>4</v>
-      </c>
-      <c r="G17" s="6"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>1.7</v>
-      </c>
-      <c r="B18" s="6">
-        <v>33943</v>
-      </c>
-      <c r="C18" s="6">
-        <v>11713</v>
-      </c>
-      <c r="D18" s="6">
-        <v>18219</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
-        <v>4</v>
-      </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
-        <v>1.8</v>
-      </c>
-      <c r="B19" s="6">
-        <v>41081</v>
-      </c>
-      <c r="C19" s="6">
-        <v>70</v>
-      </c>
-      <c r="D19" s="6">
-        <v>17804</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6">
-        <v>60</v>
-      </c>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>1.9</v>
-      </c>
-      <c r="B20" s="6">
-        <v>10694</v>
-      </c>
-      <c r="C20" s="6">
-        <v>82994</v>
-      </c>
-      <c r="D20" s="6">
-        <v>17722</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6">
-        <v>5</v>
-      </c>
-      <c r="G20" s="6"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="B21" s="20">
         <v>14055</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="20">
         <v>89005</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="20">
         <v>7580</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6">
+      <c r="E21" s="20">
+        <v>73885</v>
+      </c>
+      <c r="F21" s="20">
         <v>56</v>
       </c>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="20"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+    </row>
+    <row r="22" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="E22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="B1:B2"/>
